--- a/glossary/glossary.xlsx
+++ b/glossary/glossary.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Stats" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ANN" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tree" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="384">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -118,6 +120,12 @@
     <t xml:space="preserve"> A statistical model used to estimate the risk of an event occurring over time, taking into account the effects of multiple covariates.</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Augmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A technique used to artificially increase the size of a dataset by applying transformations or modifications to the existing data.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discrete variable</t>
   </si>
   <si>
@@ -220,12 +228,36 @@
     <t xml:space="preserve"> A graph showing the frequency distribution of a set of data, with the horizontal axis representing the values and the vertical axis representing the frequencies.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyperparameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A parameter that is set before training a machine learning model, influencing the model's behavior and performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperparameter Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of finding the optimal hyperparameter values for a machine learning model through methods like grid search, random search, or Bayesian optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperparameter Tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of finding the best hyperparameter values for a machine learning model, often done using techniques like grid search or random search.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hypothesis testing</t>
   </si>
   <si>
     <t xml:space="preserve"> A statistical procedure used to evaluate the validity of a hypothesis or claim about a population, by comparing the observed data to what would be expected under the null hypothesis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Imbalanced Class Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Techniques used to deal with imbalanced class distributions in classification tasks, such as class weighting or resampling.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interquartile range</t>
   </si>
   <si>
@@ -316,6 +348,24 @@
     <t xml:space="preserve"> The average of a set of numbers, calculated by adding all the numbers together and dividing by the number of items in the set.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mean Absolute Error (MAE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A loss function used in regression tasks, calculated as the average absolute difference between predicted and actual values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Squared Error (MSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A common loss function used in regression tasks, calculated as the average squared difference between predicted and actual values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Squared Logarithmic Error (MSLE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A loss function used in regression tasks, calculated as the average squared logarithmic difference between predicted and actual values.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Median</t>
   </si>
   <si>
@@ -448,6 +498,18 @@
     <t xml:space="preserve"> A distribution of probabilities for a discrete variable that represents the number of events occurring in a fixed interval of time or space.</t>
   </si>
   <si>
+    <t xml:space="preserve">Policy Gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A method used in reinforcement learning to directly optimize the policy of an agent, often employed in situations with continuous action spaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooling Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A layer in a CNN used to reduce the spatial dimensions of the feature maps and retain the most important information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Power</t>
   </si>
   <si>
@@ -532,12 +594,30 @@
     <t xml:space="preserve"> A graph showing the relationship between two numerical variables, with each data point represented by a dot plotted on the horizontal and vertical axes.</t>
   </si>
   <si>
+    <t xml:space="preserve">Self-Supervised Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A training paradigm in which a model generates its own labels or supervision from the input data, often used to pre-train models before fine-tuning them on specific tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-Supervised Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A learning paradigm where a model is trained on both labeled and unlabeled data, leveraging the unlabeled data to improve performance.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skewness</t>
   </si>
   <si>
     <t xml:space="preserve"> A measure of the asymmetry of a distribution, indicating whether it is skewed to the left or right.</t>
   </si>
   <si>
+    <t xml:space="preserve">Softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An activation function used in the output layer of a neural network for multi-class classification tasks, converting raw scores into probabilities.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spearman's rank correlation coefficient</t>
   </si>
   <si>
@@ -586,6 +666,12 @@
     <t xml:space="preserve"> A statistical technique used to analyze data that are collected at regular intervals over time.</t>
   </si>
   <si>
+    <t xml:space="preserve">Transfer Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A technique in deep learning where a pre-trained neural network is used as a starting point for a new task, often with some of its layers frozen to retain learned features.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type I error</t>
   </si>
   <si>
@@ -598,6 +684,18 @@
     <t xml:space="preserve"> The error of failing to reject the null hypothesis when it is false.</t>
   </si>
   <si>
+    <t xml:space="preserve">Unsupervised Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A machine learning paradigm where a model is trained on unlabeled data to find underlying patterns and structures without explicit supervision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanishing Gradient Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A problem occurring in deep neural networks during backpropagation, where the gradients of the loss function with respect to certain weights become extremely small, hindering learning.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variance</t>
   </si>
   <si>
@@ -616,10 +714,466 @@
     <t xml:space="preserve"> A nonparametric statistical test used to compare the medians of two groups, when the data are not normally distributed or the variances are not equal.</t>
   </si>
   <si>
+    <t xml:space="preserve">Word Embeddings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A representation of words in a continuous vector space, learned from large textual corpora, used to capture semantic relationships between words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word2Vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A popular algorithm used to generate word embeddings from textual data, typically based on either Skip-gram or Continuous Bag of Words (CBOW) models.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z-score</t>
   </si>
   <si>
     <t xml:space="preserve"> The number of standard deviations a value is from the mean of a distribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A function applied to the output of a neuron to introduce non-linearity in the network and determine the neuron's firing behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor-Critic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A hybrid reinforcement learning approach that combines value-based (Critic) and policy-based (Actor) methods to improve stability and efficiency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Neural Network (ANN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A computational model inspired by the structure and function of biological neural networks, used for machine learning tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention Mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A mechanism used in deep learning models, especially in natural language processing tasks, to focus on relevant parts of the input sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the context of attention mechanisms, a score that reflects the relevance or importance of a particular part of the input data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoencoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of neural network used for unsupervised learning, trained to reconstruct its input data and compress it into a lower-dimensional representation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpropagation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A learning algorithm used in training neural networks by adjusting the network's weights based on the error signal propagated backward from the output to the input layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A technique used to improve the training and generalization of neural networks by normalizing the inputs of each layer in a mini-batch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number of training samples processed together in one forward and backward pass during each epoch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convolutional Neural Network (CNN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of neural network specifically designed for image recognition and processing tasks, utilizing convolutional layers to detect patterns and features in images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Q-Network (DQN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A deep learning algorithm used for reinforcement learning, combining Q-learning with a deep neural network to approximate the Q-values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A regularization technique in deep learning where randomly selected neurons are ignored during training to reduce overfitting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Stopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A regularization technique used during training to stop the learning process when the performance on a validation set stops improving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder-Decoder Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A neural network architecture where an encoder compresses the input data into a latent representation, and a decoder reconstructs the data from the latent space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End-to-End Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A learning approach where a neural network is trained to directly map raw input data to output predictions without the need for intermediate feature engineering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A single pass of the entire training dataset through the neural network during the training process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploding Gradient Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A problem occurring in deep neural networks during backpropagation, where the gradients of the loss function with respect to certain weights become excessively large, leading to unstable training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedforward Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of artificial neural network where the flow of data is unidirectional, moving from input to output through hidden layers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gated Recurrent Unit (GRU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Another variant of RNN similar to LSTM but with a simpler architecture and fewer parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generative Adversarial Network (GAN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of neural network architecture consisting of a generator and a discriminator, competing in a game to produce realistic synthetic data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Descent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An optimization algorithm used to find the optimal weights of a neural network by iteratively updating them in the direction of the steepest descent of the loss function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A hyperparameter that controls the step size in gradient descent, determining how much the weights are updated in each iteration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Rate Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A technique used to adjust the learning rate during training, allowing for faster convergence and better optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Short-Term Memory (LSTM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A variant of RNN designed to alleviate the vanishing gradient problem and better capture long-range dependencies in sequential data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure used to evaluate how well the neural network's predictions match the actual targets during training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A hyperparameter used to speed up the convergence of gradient descent by adding a fraction of the previous weight update to the current update.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuron (Node)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A basic unit in an artificial neural network, responsible for receiving input, performing computations, and producing an output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A phenomenon where a neural network performs well on the training data but poorly on unseen or test data due to excessive memorization of noise in the training set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent Neural Network (RNN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of neural network that is capable of processing sequential data by maintaining hidden state information across time steps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of machine learning paradigm where an agent interacts with an environment to learn how to take actions to maximize cumulative rewards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A multi-dimensional array used to represent data in deep learning frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A neural network architecture based on self-attention mechanisms, widely used in natural language processing tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A phenomenon where a neural network performs poorly on both the training and test data due to the model's simplicity and inability to capture the underlying patterns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdaBoost (Adaptive Boosting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A boosting algorithm that assigns higher weights to misclassified samples in each iteration, emphasizing difficult-to-predict instances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of training multiple models independently on different subsets of the training data and averaging their predictions, used in Random Forests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An ensemble learning method that trains multiple weak learners sequentially, with each subsequent model focusing on correcting the errors of the previous ones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CART (Classification and Regression Trees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An algorithm for constructing decision trees that can be used for both classification and regression tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A gradient boosting library that can handle categorical features directly, without the need for explicit encoding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical Feature Encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Techniques to convert categorical variables into numerical form for decision trees, such as one-hot encoding or label encoding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A decision tree used for classification tasks, where the output at each leaf node represents a class label.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The boundary or threshold that separates different classes in a decision tree or other classification model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The sequence of feature-based decisions made from the root node to a specific leaf node in a decision tree, providing insights into how predictions are made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Stump</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A decision tree with only one level of internal nodes, used as a weak learner in boosting algorithms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A hierarchical tree-like structure used for classification and regression tasks, where each internal node represents a decision based on a feature, and each leaf node represents the predicted output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of combining predictions from multiple decision trees or models to produce the final output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A machine learning technique that combines multiple models to make predictions, often leading to improved accuracy and robustness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of the randomness or uncertainty in a dataset, used in information gain calculations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of the importance of each feature in a decision tree or ensemble model, indicating how much each feature contributes to the prediction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Split Importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of how much a feature contributes to the decision-making process in a tree-based model, based on the number of times the feature is used for splitting and the resulting impurity reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini Impurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of the impurity or uncertainty in a dataset, used as a splitting criterion for decision trees in classification tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Boosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A boosting algorithm that builds decision trees sequentially, where each new tree corrects the errors of the previous ones using gradient descent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of the reduction in entropy achieved by a split, used as a splitting criterion for decision trees in classification tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interaction Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The depth or number of interactions allowed between features in a tree-based model, often set to control model complexity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A node in a decision tree that contains a decision based on a feature, leading to further splits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A terminal node in a decision tree that provides the final prediction or decision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf Sample Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The minimum number of samples required at a leaf node for the node to be considered valid and used for predictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LightGBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Another optimized gradient boosting implementation, designed to be faster and more memory-efficient than XGBoost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Values Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strategies for dealing with missing values during the construction of decision trees, such as imputation or assigning them to the most common class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The depth or level of a node in a decision tree, representing the number of splits needed to reach that node from the root.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Impurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of the impurity or homogeneity of the samples at a node, used to evaluate potential splits during decision tree construction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-of-Bag Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The error rate of a random forest model calculated using the samples that were not used in a particular tree's training (out-of-bag samples).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A phenomenon where a decision tree captures noise or irrelevant patterns in the training data, resulting in poor generalization to unseen data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruned Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A decision tree that has undergone pruning to remove branches that do not significantly contribute to the model's performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A technique used to reduce the size of a decision tree by removing branches that do not significantly contribute to the model's performance, helping to avoid overfitting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An ensemble learning method that builds multiple decision trees and combines their predictions to improve accuracy and reduce overfitting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A decision tree used for regression tasks, where the output at each leaf node is a continuous value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The topmost node of a decision tree, representing the initial split based on a feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of dividing the dataset at a node based on a feature and its threshold value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splitting Criterion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure used to determine the best feature and threshold for a split, such as Gini impurity or information gain for classification, and mean squared error for regression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splitting Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The method used to choose the feature and threshold for splitting a node in a decision tree, such as best split, random split, or greedy split.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termination Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conditions used to stop the tree-building process, such as the maximum depth of the tree or the minimum number of samples required to split a node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Pruning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A process that reduces the size of a decision tree by removing branches that do not contribute significantly to the model's performance, helping to avoid overfitting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A phenomenon where a decision tree is too simple to capture the underlying patterns in the training data, resulting in poor performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance Reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process of reducing the variance of predictions by averaging the outputs of multiple models, such as in random forests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An optimized implementation of gradient boosting, known for its efficiency and high performance.</t>
   </si>
 </sst>
 </file>
@@ -629,11 +1183,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -649,6 +1204,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -693,8 +1255,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -724,22 +1290,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1457,98 +2023,226 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1560,4 +2254,770 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.26"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>